--- a/excel/files_13_data_visualization_solutions/exercise06/exercise06.xlsx
+++ b/excel/files_13_data_visualization_solutions/exercise06/exercise06.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis2/data_analysis/excel/files_13_data_visualization_solutions/exercise06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis_master_dgv/data_analysis/excel/files_13_data_visualization_solutions/exercise06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69C557F-DD94-4BF4-A8CE-E95803D7DB37}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76593549-186A-4C78-A986-C0BFEF6E4A1B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food_Product_Emissions" sheetId="4" r:id="rId1"/>
     <sheet name="Clustered column oil items" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="pie" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Food_Product_Emissions!$A$1:$K$44</definedName>
@@ -378,17 +379,20 @@
             <c:strRef>
               <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Olive Oil</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rapeseed Oil</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Soybean Oil</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sunflower Oil</c:v>
                 </c:pt>
               </c:strCache>
@@ -399,17 +403,20 @@
               <c:f>Food_Product_Emissions!$D$24:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.2720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.1070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.343</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.5189999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.1480000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -449,17 +456,20 @@
             <c:strRef>
               <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Olive Oil</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rapeseed Oil</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Soybean Oil</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sunflower Oil</c:v>
                 </c:pt>
               </c:strCache>
@@ -470,17 +480,20 @@
               <c:f>Food_Product_Emissions!$E$24:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.264</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.193</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.311</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.22900000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -520,17 +533,20 @@
             <c:strRef>
               <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Olive Oil</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rapeseed Oil</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Soybean Oil</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sunflower Oil</c:v>
                 </c:pt>
               </c:strCache>
@@ -541,17 +557,20 @@
               <c:f>Food_Product_Emissions!$F$24:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.48199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.19</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.29899999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.20100000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -591,17 +610,20 @@
             <c:strRef>
               <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Olive Oil</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rapeseed Oil</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Soybean Oil</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sunflower Oil</c:v>
                 </c:pt>
               </c:strCache>
@@ -612,17 +634,20 @@
               <c:f>Food_Product_Emissions!$G$24:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.86099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.84399999999999997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.84899999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.85299999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -662,17 +687,20 @@
             <c:strRef>
               <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Olive Oil</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rapeseed Oil</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Soybean Oil</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Sunflower Oil</c:v>
                 </c:pt>
               </c:strCache>
@@ -683,17 +711,20 @@
               <c:f>Food_Product_Emissions!$H$24:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1025,6 +1056,841 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Food Product Emissions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Farm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packaging</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Retail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Food_Product_Emissions!$D$24:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1070000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1480000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0403-4B01-9D05-35FA43567017}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Processing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Farm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packaging</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Retail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Food_Product_Emissions!$E$24:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0403-4B01-9D05-35FA43567017}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transport</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Farm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packaging</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Retail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Food_Product_Emissions!$F$24:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0403-4B01-9D05-35FA43567017}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Packaging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Farm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packaging</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Retail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Food_Product_Emissions!$G$24:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0403-4B01-9D05-35FA43567017}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Retail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$D$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Farm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Transport</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Packaging</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Retail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Food_Product_Emissions!$H$24:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0403-4B01-9D05-35FA43567017}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1065,7 +1931,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1611,6 +3020,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3495E2B-9092-4312-B655-A25A50EB55B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{C0FC74B9-8D44-4DDB-A029-BCC4EED89607}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
@@ -1637,6 +3089,7 @@
     <filterColumn colId="0">
       <filters>
         <filter val="Olive Oil"/>
+        <filter val="Palm Oil"/>
         <filter val="Rapeseed Oil"/>
         <filter val="Soybean Oil"/>
         <filter val="Sunflower Oil"/>
@@ -1926,24 +3379,24 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +3431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2013,7 +3466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2048,7 +3501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2083,7 +3536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2118,7 +3571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2153,7 +3606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2188,7 +3641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2223,7 +3676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2258,7 +3711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2293,7 +3746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2328,7 +3781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2363,7 +3816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2398,7 +3851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2433,7 +3886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2468,7 +3921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2503,7 +3956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2538,7 +3991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2573,7 +4026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2608,7 +4061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2643,7 +4096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2678,7 +4131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2713,7 +4166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2748,7 +4201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2783,7 +4236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2818,7 +4271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2853,7 +4306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2888,7 +4341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2923,7 +4376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2958,7 +4411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2993,7 +4446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3028,7 +4481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3063,7 +4516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3098,7 +4551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3133,7 +4586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3168,7 +4621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -3203,7 +4656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3238,7 +4691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -3273,7 +4726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3308,7 +4761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3343,7 +4796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -3378,7 +4831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -3413,7 +4866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -3448,7 +4901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3495,11 +4948,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0799081A-E893-4BD1-A72A-AFA869779E49}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3507,12 +4960,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BEE074-C766-4B0C-810F-AEDBDF4CEBB2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4A3C5A-C22F-4E73-A5C7-FCBFDD0C0F52}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/files_13_data_visualization_solutions/exercise06/exercise06.xlsx
+++ b/excel/files_13_data_visualization_solutions/exercise06/exercise06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis_master_dgv/data_analysis/excel/files_13_data_visualization_solutions/exercise06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76593549-186A-4C78-A986-C0BFEF6E4A1B}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_F25DC773A252ABDACC104804C9D87D685ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC6F7FF-5265-4CA1-829C-3F16526925CD}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food_Product_Emissions" sheetId="4" r:id="rId1"/>
@@ -1098,11 +1098,19 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Food Product Emissions</a:t>
+              <a:t>Food Product Emissions for Palm Oil</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25706717959699255"/>
+          <c:y val="2.4585131947870809E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1140,17 +1148,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Food_Product_Emissions!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Farm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1163,6 +1160,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A7DE-4FF8-9BCD-2B02C024640F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1176,6 +1178,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A7DE-4FF8-9BCD-2B02C024640F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1189,6 +1196,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A7DE-4FF8-9BCD-2B02C024640F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1202,6 +1214,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A7DE-4FF8-9BCD-2B02C024640F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1215,7 +1232,68 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A7DE-4FF8-9BCD-2B02C024640F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Food_Product_Emissions!$D$1:$H$1</c:f>
@@ -1241,565 +1319,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Food_Product_Emissions!$D$24:$D$40</c:f>
+              <c:f>Food_Product_Emissions!$D$29:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.2720000000000002</c:v>
+                  <c:v>2.1070000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1070000000000002</c:v>
+                  <c:v>1.264</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.343</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5189999999999999</c:v>
+                  <c:v>0.88600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1480000000000001</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0403-4B01-9D05-35FA43567017}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Food_Product_Emissions!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Processing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Food_Product_Emissions!$D$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Farm</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Processing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Transport</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Packaging</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Retail</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Food_Product_Emissions!$E$24:$E$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.264</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.193</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.311</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22900000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0403-4B01-9D05-35FA43567017}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Food_Product_Emissions!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Transport</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Food_Product_Emissions!$D$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Farm</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Processing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Transport</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Packaging</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Retail</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Food_Product_Emissions!$F$24:$F$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.48199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20100000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0403-4B01-9D05-35FA43567017}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Food_Product_Emissions!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Packaging</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Food_Product_Emissions!$D$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Farm</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Processing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Transport</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Packaging</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Retail</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Food_Product_Emissions!$G$24:$G$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.86099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85299999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0403-4B01-9D05-35FA43567017}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Food_Product_Emissions!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Retail</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Food_Product_Emissions!$D$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Farm</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Processing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Transport</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Packaging</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Retail</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Food_Product_Emissions!$H$24:$H$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2999999999999997E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0403-4B01-9D05-35FA43567017}"/>
+              <c16:uniqueId val="{00000032-BC40-486A-998E-40D4077BEBBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1830,7 +1381,397 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Total Global Average GHG Emissions per kg for different</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> oil types</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14208120285941742"/>
+          <c:y val="3.3804556428322363E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
           <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A0DF-4389-9DF4-E942B614215C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A0DF-4389-9DF4-E942B614215C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A0DF-4389-9DF4-E942B614215C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A0DF-4389-9DF4-E942B614215C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A0DF-4389-9DF4-E942B614215C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Food_Product_Emissions!$A$24:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Olive Oil</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Palm Oil</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rapeseed Oil</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Soybean Oil</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sunflower Oil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Food_Product_Emissions!$J$24:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-A0DF-4389-9DF4-E942B614215C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1971,6 +1912,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2475,6 +2456,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3055,6 +3539,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>563031</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132079</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894A8171-4970-4117-A31D-A42AC22F1AF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3379,7 +3901,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4964,7 +5486,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
